--- a/設計書確定版/STEP2/画面遷移図part2.xlsx
+++ b/設計書確定版/STEP2/画面遷移図part2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\システム開発演習\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="part2" sheetId="1" r:id="rId1"/>
@@ -140,23 +140,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>password.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>管理者画面</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>このモーダル画面は、メニュー画面で表示される使用です。ですのでこの画面は遷移していません。</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -190,14 +173,6 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>rohuin.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>era.php</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -236,10 +211,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>hojyu.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>管理者画面</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -260,10 +231,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>kannri2.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>商品管理画面</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンカンリ</t>
@@ -271,6 +238,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager_login.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>inventory.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>menu_manage.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>error.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>index.php</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1015,60 +1018,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2762250" y="2449286"/>
-          <a:ext cx="1129393" cy="1197429"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2364,15 +2313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>39007</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23558</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>191407</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2381,8 +2330,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3304721" y="2840237"/>
-          <a:ext cx="560615" cy="847298"/>
+          <a:off x="2951480" y="2463048"/>
+          <a:ext cx="518160" cy="756402"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3821,15 +3770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>100361</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>86754</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>159028</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>145421</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3838,8 +3787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3161968" y="3327203"/>
-          <a:ext cx="670989" cy="156225"/>
+          <a:off x="2829954" y="2595683"/>
+          <a:ext cx="607307" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4828,15 +4777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>40409</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>40985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>108526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4845,8 +4794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1109980" y="9005570"/>
-          <a:ext cx="713740" cy="186690"/>
+          <a:off x="1121064" y="9136494"/>
+          <a:ext cx="705427" cy="192232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4900,13 +4849,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>55072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>170180</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4915,8 +4864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1102360" y="9277350"/>
-          <a:ext cx="713740" cy="179070"/>
+          <a:off x="1085735" y="9399963"/>
+          <a:ext cx="705427" cy="184612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5048,14 +4997,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>15587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5064,8 +5013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1120140" y="9532620"/>
-          <a:ext cx="713740" cy="179070"/>
+          <a:off x="1103515" y="9677401"/>
+          <a:ext cx="702656" cy="181841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5369,15 +5318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>138545</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>104602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
+      <xdr:colOff>89015</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>104602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5386,8 +5335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3078480" y="8633460"/>
-          <a:ext cx="499110" cy="121920"/>
+          <a:off x="3020290" y="8819111"/>
+          <a:ext cx="490798" cy="124691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5952,126 +5901,70 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>108580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>88238</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="フリーフォーム 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="299080" y="3286125"/>
-          <a:ext cx="891545" cy="6398551"/>
+          <a:off x="2091266" y="2565397"/>
+          <a:ext cx="609601" cy="584203"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 891545 w 891545"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 6398551"/>
-            <a:gd name="connsiteX1" fmla="*/ 177170 w 891545"/>
-            <a:gd name="connsiteY1" fmla="*/ 3476625 h 6398551"/>
-            <a:gd name="connsiteX2" fmla="*/ 10482 w 891545"/>
-            <a:gd name="connsiteY2" fmla="*/ 5072062 h 6398551"/>
-            <a:gd name="connsiteX3" fmla="*/ 391482 w 891545"/>
-            <a:gd name="connsiteY3" fmla="*/ 6238875 h 6398551"/>
-            <a:gd name="connsiteX4" fmla="*/ 462920 w 891545"/>
-            <a:gd name="connsiteY4" fmla="*/ 6357937 h 6398551"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="891545" h="6398551">
-              <a:moveTo>
-                <a:pt x="891545" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="607779" y="1315640"/>
-                <a:pt x="324014" y="2631281"/>
-                <a:pt x="177170" y="3476625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="30326" y="4321969"/>
-                <a:pt x="-25237" y="4611687"/>
-                <a:pt x="10482" y="5072062"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="46201" y="5532437"/>
-                <a:pt x="316076" y="6024563"/>
-                <a:pt x="391482" y="6238875"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="466888" y="6453187"/>
-                <a:pt x="464904" y="6405562"/>
-                <a:pt x="462920" y="6357937"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51857</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67732</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>83079</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70378</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165099</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6080,8 +5973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="557212" y="4338107"/>
-          <a:ext cx="668867" cy="423334"/>
+          <a:off x="2116665" y="2675466"/>
+          <a:ext cx="656167" cy="364067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6136,73 +6029,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>157792</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>143802</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="770113" y="9396659"/>
-          <a:ext cx="195995" cy="318841"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="177800" y="2370667"/>
+          <a:ext cx="16933" cy="6358466"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>4239</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84745</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3007179" y="2816679"/>
-          <a:ext cx="670989" cy="149679"/>
+          <a:off x="942109" y="9892145"/>
+          <a:ext cx="403400" cy="162791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6233,13 +6133,195 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>メニューボタン</a:t>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3215</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="183324" y="2484154"/>
+          <a:ext cx="689512" cy="2737"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13856</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145473</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="193965" y="9088582"/>
+          <a:ext cx="671944" cy="6927"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4150978"/>
+          <a:ext cx="1311565" cy="434877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>戻るボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6514,13 +6596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6649,7 +6731,7 @@
       <c r="BB2" s="112"/>
       <c r="BC2" s="113"/>
     </row>
-    <row r="3" spans="1:73" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
@@ -7030,7 +7112,7 @@
       <c r="BT9" s="7"/>
       <c r="BU9" s="8"/>
     </row>
-    <row r="10" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7105,7 +7187,7 @@
       <c r="BT10" s="7"/>
       <c r="BU10" s="8"/>
     </row>
-    <row r="11" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -7182,7 +7264,7 @@
       <c r="BT11" s="7"/>
       <c r="BU11" s="8"/>
     </row>
-    <row r="12" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7265,7 +7347,7 @@
       <c r="BT12" s="7"/>
       <c r="BU12" s="8"/>
     </row>
-    <row r="13" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7423,7 +7505,7 @@
       <c r="BT14" s="7"/>
       <c r="BU14" s="8"/>
     </row>
-    <row r="15" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7500,7 +7582,7 @@
       <c r="BT15" s="7"/>
       <c r="BU15" s="8"/>
     </row>
-    <row r="16" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8029,7 +8111,7 @@
       <c r="BT22" s="7"/>
       <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8236,7 +8318,7 @@
       <c r="BT25" s="7"/>
       <c r="BU25" s="8"/>
     </row>
-    <row r="26" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8305,7 +8387,7 @@
       <c r="BT26" s="7"/>
       <c r="BU26" s="8"/>
     </row>
-    <row r="27" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8320,7 +8402,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -8466,7 +8548,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="47"/>
       <c r="N29" s="48" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
@@ -8528,7 +8610,7 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="8"/>
     </row>
-    <row r="30" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8646,7 +8728,7 @@
       <c r="AZ31" s="7"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC31" s="82"/>
       <c r="BD31" s="82"/>
@@ -8743,7 +8825,7 @@
       <c r="BT32" s="7"/>
       <c r="BU32" s="8"/>
     </row>
-    <row r="33" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8818,7 +8900,7 @@
       <c r="BT33" s="7"/>
       <c r="BU33" s="8"/>
     </row>
-    <row r="34" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -8850,7 +8932,7 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="7"/>
       <c r="AT34" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU34" s="55"/>
       <c r="AV34" s="55"/>
@@ -8973,7 +9055,7 @@
       <c r="AS36" s="7"/>
       <c r="AT36" s="24"/>
       <c r="AU36" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV36" s="25"/>
       <c r="AW36" s="25"/>
@@ -9002,7 +9084,7 @@
       <c r="BT36" s="7"/>
       <c r="BU36" s="8"/>
     </row>
-    <row r="37" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -9062,7 +9144,7 @@
       <c r="BT37" s="7"/>
       <c r="BU37" s="8"/>
     </row>
-    <row r="38" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -9405,7 +9487,7 @@
       <c r="BT43" s="7"/>
       <c r="BU43" s="8"/>
     </row>
-    <row r="44" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -9465,7 +9547,7 @@
       <c r="BT44" s="7"/>
       <c r="BU44" s="8"/>
     </row>
-    <row r="45" spans="1:74" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:74" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -9474,7 +9556,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="56"/>
       <c r="H45" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -9484,7 +9566,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="12"/>
       <c r="S45" s="13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -9496,7 +9578,7 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
@@ -9623,7 +9705,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="24"/>
       <c r="G47" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
@@ -9632,7 +9714,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="75"/>
       <c r="S47" s="76" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
@@ -9644,7 +9726,7 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="24"/>
       <c r="AC47" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AD47" s="25"/>
       <c r="AE47" s="25"/>
@@ -9692,7 +9774,7 @@
       <c r="BU47" s="7"/>
       <c r="BV47" s="7"/>
     </row>
-    <row r="48" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -9820,7 +9902,7 @@
       <c r="BC50" s="7"/>
       <c r="BD50" s="7"/>
     </row>
-    <row r="51" spans="1:56" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:56" ht="12.6" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9842,7 +9924,7 @@
       <c r="W51" s="34"/>
       <c r="X51" s="8"/>
       <c r="AB51" s="60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
@@ -10058,7 +10140,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
@@ -10108,7 +10190,7 @@
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
     </row>
-    <row r="67" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
@@ -10119,11 +10201,11 @@
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
     </row>
-    <row r="68" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E68" s="7"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
@@ -10131,7 +10213,7 @@
       <c r="K68" s="14"/>
       <c r="U68" s="12"/>
       <c r="V68" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
@@ -10176,7 +10258,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="66"/>
       <c r="G70" s="67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
@@ -10184,7 +10266,7 @@
       <c r="K70" s="68"/>
       <c r="U70" s="66"/>
       <c r="V70" s="67" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="W70" s="67"/>
       <c r="X70" s="67"/>
@@ -10201,7 +10283,7 @@
       <c r="AQ70" s="65"/>
       <c r="AS70" s="7"/>
     </row>
-    <row r="71" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E71" s="7"/>
       <c r="F71" s="69"/>
       <c r="G71" s="70"/>
@@ -10377,7 +10459,7 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
     </row>
-    <row r="79" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F79" s="38"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
@@ -10405,11 +10487,11 @@
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
     </row>
-    <row r="87" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U88" s="12"/>
       <c r="V88" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
@@ -10439,7 +10521,7 @@
     <row r="90" spans="8:42" x14ac:dyDescent="0.15">
       <c r="U90" s="66"/>
       <c r="V90" s="67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W90" s="67"/>
       <c r="X90" s="67"/>
@@ -10452,7 +10534,7 @@
       <c r="AO90" s="61"/>
       <c r="AP90" s="61"/>
     </row>
-    <row r="91" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U91" s="69"/>
       <c r="V91" s="70"/>
       <c r="W91" s="70"/>
@@ -10655,7 +10737,7 @@
       <c r="AO98" s="61"/>
       <c r="AP98" s="61"/>
     </row>
-    <row r="99" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>

--- a/設計書確定版/STEP2/画面遷移図part2.xlsx
+++ b/設計書確定版/STEP2/画面遷移図part2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\システム開発演習\画面遷移図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書確定版\STEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,16 +221,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>補充画面</t>
-    <rPh sb="0" eb="2">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>商品管理画面</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンカンリ</t>
@@ -274,6 +264,19 @@
   </si>
   <si>
     <t>index.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>在庫管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4776,16 +4779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>40409</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>40985</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82742</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>7118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>108526</xdr:rowOff>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4794,8 +4797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1121064" y="9136494"/>
-          <a:ext cx="705427" cy="192232"/>
+          <a:off x="1386609" y="8837851"/>
+          <a:ext cx="619991" cy="213015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4846,16 +4849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>55072</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>4273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170180</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114993</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4864,8 +4867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1085735" y="9399963"/>
-          <a:ext cx="705427" cy="184612"/>
+          <a:off x="1038013" y="8835006"/>
+          <a:ext cx="308187" cy="554528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4902,7 +4905,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ユーザー</a:t>
+            <a:t>ユー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ザー</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
@@ -4995,16 +5006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>83128</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90594</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>91594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>15587</xdr:rowOff>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5013,8 +5024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1103515" y="9677401"/>
-          <a:ext cx="702656" cy="181841"/>
+          <a:off x="1394461" y="9159394"/>
+          <a:ext cx="612140" cy="238606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5058,80 +5069,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>160019</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>22014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>60114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4000499" y="9676554"/>
-          <a:ext cx="405554" cy="160020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5564,80 +5501,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3672840" y="12146280"/>
-          <a:ext cx="213360" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>53339</xdr:colOff>
       <xdr:row>94</xdr:row>
@@ -5772,15 +5635,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56304</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5789,8 +5652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3116580" y="10287000"/>
-          <a:ext cx="499110" cy="114300"/>
+          <a:off x="3275753" y="10253133"/>
+          <a:ext cx="505884" cy="135467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5827,8 +5690,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>戻るボタン</a:t>
+            <a:t>在庫管理へ</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5837,15 +5701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>31327</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>72814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
+      <xdr:colOff>13547</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>8044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5854,8 +5718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2034540" y="9883140"/>
-          <a:ext cx="713740" cy="186690"/>
+          <a:off x="2080260" y="9614747"/>
+          <a:ext cx="727287" cy="180764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6272,9 +6136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
+      <xdr:colOff>110066</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>117764</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6283,8 +6147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4150978"/>
-          <a:ext cx="1311565" cy="434877"/>
+          <a:off x="0" y="3973947"/>
+          <a:ext cx="1413933" cy="344053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6320,8 +6184,246 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>戻るボタン</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ホームボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>77047</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>48261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3988647" y="9668933"/>
+          <a:ext cx="7620" cy="1004995"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>185421</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>45297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3369734" y="9770533"/>
+          <a:ext cx="727287" cy="180764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>在庫管理ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>128694</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4588933" y="9643534"/>
+          <a:ext cx="10161" cy="1007533"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66887</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>62231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4555067" y="10261600"/>
+          <a:ext cx="727287" cy="180764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>商品管理ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6596,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC84" sqref="AC84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -8402,7 +8504,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -8548,7 +8650,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="47"/>
       <c r="N29" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
@@ -9556,7 +9658,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="56"/>
       <c r="H45" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -9566,7 +9668,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="12"/>
       <c r="S45" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -10213,7 +10315,7 @@
       <c r="K68" s="14"/>
       <c r="U68" s="12"/>
       <c r="V68" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
@@ -10266,7 +10368,7 @@
       <c r="K70" s="68"/>
       <c r="U70" s="66"/>
       <c r="V70" s="67" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="W70" s="67"/>
       <c r="X70" s="67"/>
@@ -10491,7 +10593,7 @@
     <row r="88" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U88" s="12"/>
       <c r="V88" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
@@ -10521,7 +10623,7 @@
     <row r="90" spans="8:42" x14ac:dyDescent="0.15">
       <c r="U90" s="66"/>
       <c r="V90" s="67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W90" s="67"/>
       <c r="X90" s="67"/>

--- a/設計書確定版/STEP2/画面遷移図part2.xlsx
+++ b/設計書確定版/STEP2/画面遷移図part2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="part2" sheetId="1" r:id="rId1"/>
@@ -5765,134 +5765,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>118530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>93134</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2091266" y="2565397"/>
-          <a:ext cx="609601" cy="584203"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>67732</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>165099</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2116665" y="2675466"/>
-          <a:ext cx="656167" cy="364067"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>管理者用画面ボタン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -6076,13 +5948,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>13856</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:colOff>13857</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145473</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6093,8 +5965,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="193965" y="9088582"/>
-          <a:ext cx="671944" cy="6927"/>
+          <a:off x="214940" y="10022417"/>
+          <a:ext cx="779893" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6130,15 +6002,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>70814</xdr:rowOff>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>110066</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6147,8 +6019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="3973947"/>
-          <a:ext cx="1413933" cy="344053"/>
+          <a:off x="21167" y="4473481"/>
+          <a:ext cx="582083" cy="648852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6184,8 +6056,19 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ホームボタン</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ホーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6425,6 +6308,215 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
             <a:t>商品管理ボタン</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="3058584"/>
+          <a:ext cx="306917" cy="10583"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="9260417"/>
+          <a:ext cx="328083" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="666750" y="3048000"/>
+          <a:ext cx="21167" cy="6223000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="353483" y="3704167"/>
+          <a:ext cx="683684" cy="385232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>管理者用画面ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6698,13 +6790,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC84" sqref="AC84"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6833,7 +6925,7 @@
       <c r="BB2" s="112"/>
       <c r="BC2" s="113"/>
     </row>
-    <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:73" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
@@ -7214,7 +7306,7 @@
       <c r="BT9" s="7"/>
       <c r="BU9" s="8"/>
     </row>
-    <row r="10" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7289,7 +7381,7 @@
       <c r="BT10" s="7"/>
       <c r="BU10" s="8"/>
     </row>
-    <row r="11" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -7366,7 +7458,7 @@
       <c r="BT11" s="7"/>
       <c r="BU11" s="8"/>
     </row>
-    <row r="12" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7449,7 +7541,7 @@
       <c r="BT12" s="7"/>
       <c r="BU12" s="8"/>
     </row>
-    <row r="13" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7607,7 +7699,7 @@
       <c r="BT14" s="7"/>
       <c r="BU14" s="8"/>
     </row>
-    <row r="15" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7684,7 +7776,7 @@
       <c r="BT15" s="7"/>
       <c r="BU15" s="8"/>
     </row>
-    <row r="16" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8213,7 +8305,7 @@
       <c r="BT22" s="7"/>
       <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8420,7 +8512,7 @@
       <c r="BT25" s="7"/>
       <c r="BU25" s="8"/>
     </row>
-    <row r="26" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8489,7 +8581,7 @@
       <c r="BT26" s="7"/>
       <c r="BU26" s="8"/>
     </row>
-    <row r="27" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8712,7 +8804,7 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="8"/>
     </row>
-    <row r="30" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8927,7 +9019,7 @@
       <c r="BT32" s="7"/>
       <c r="BU32" s="8"/>
     </row>
-    <row r="33" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9002,7 +9094,7 @@
       <c r="BT33" s="7"/>
       <c r="BU33" s="8"/>
     </row>
-    <row r="34" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -9186,7 +9278,7 @@
       <c r="BT36" s="7"/>
       <c r="BU36" s="8"/>
     </row>
-    <row r="37" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -9246,7 +9338,7 @@
       <c r="BT37" s="7"/>
       <c r="BU37" s="8"/>
     </row>
-    <row r="38" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -9589,7 +9681,7 @@
       <c r="BT43" s="7"/>
       <c r="BU43" s="8"/>
     </row>
-    <row r="44" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -9649,7 +9741,7 @@
       <c r="BT44" s="7"/>
       <c r="BU44" s="8"/>
     </row>
-    <row r="45" spans="1:74" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -9876,7 +9968,7 @@
       <c r="BU47" s="7"/>
       <c r="BV47" s="7"/>
     </row>
-    <row r="48" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -10004,7 +10096,7 @@
       <c r="BC50" s="7"/>
       <c r="BD50" s="7"/>
     </row>
-    <row r="51" spans="1:56" ht="12.6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:56" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -10242,7 +10334,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
@@ -10292,7 +10384,7 @@
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
     </row>
-    <row r="67" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
@@ -10303,7 +10395,7 @@
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
     </row>
-    <row r="68" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E68" s="7"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13" t="s">
@@ -10385,7 +10477,7 @@
       <c r="AQ70" s="65"/>
       <c r="AS70" s="7"/>
     </row>
-    <row r="71" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E71" s="7"/>
       <c r="F71" s="69"/>
       <c r="G71" s="70"/>
@@ -10561,7 +10653,7 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
     </row>
-    <row r="79" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F79" s="38"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
@@ -10589,8 +10681,8 @@
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
     </row>
-    <row r="87" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U88" s="12"/>
       <c r="V88" s="13" t="s">
         <v>32</v>
@@ -10636,7 +10728,7 @@
       <c r="AO90" s="61"/>
       <c r="AP90" s="61"/>
     </row>
-    <row r="91" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U91" s="69"/>
       <c r="V91" s="70"/>
       <c r="W91" s="70"/>
@@ -10839,7 +10931,7 @@
       <c r="AO98" s="61"/>
       <c r="AP98" s="61"/>
     </row>
-    <row r="99" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
